--- a/log_history/Y4_B2728_Psychiatry_scanner1768822066181_777a7ef70b264145087988cc1df6e5b3872c5f2c93f3a9557d1c8b20b7f05913.xlsx
+++ b/log_history/Y4_B2728_Psychiatry_scanner1768822066181_777a7ef70b264145087988cc1df6e5b3872c5f2c93f3a9557d1c8b20b7f05913.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Psychiatry" sheetId="1" r:id="rId1"/>
+    <sheet name="Scanner" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
